--- a/results/outputs/Patient_2_Electrode_6_anchor_2_arrayPos_0.2.xlsx
+++ b/results/outputs/Patient_2_Electrode_6_anchor_2_arrayPos_0.2.xlsx
@@ -13,7 +13,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+  <si>
+    <t>Electrodos</t>
+  </si>
+  <si>
+    <t>Intensidad</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>NRT_real</t>
+  </si>
+  <si>
+    <t>NRT_sim</t>
+  </si>
+  <si>
+    <t>Trained</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>Electrodos</t>
+  </si>
+  <si>
+    <t>Intensidad</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>NRT_real</t>
+  </si>
+  <si>
+    <t>NRT_sim</t>
+  </si>
+  <si>
+    <t>Trained</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>Electrodos</t>
+  </si>
+  <si>
+    <t>Intensidad</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>NRT_real</t>
+  </si>
+  <si>
+    <t>NRT_sim</t>
+  </si>
+  <si>
+    <t>Trained</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
   <si>
     <t>Electrodos</t>
   </si>
@@ -543,7 +633,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -568,11 +658,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -591,6 +684,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,34 +713,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
@@ -667,7 +763,7 @@
         <v>3.1760000000000001e-05</v>
       </c>
       <c r="G2" s="0">
-        <v>2.5656227881005922e-05</v>
+        <v>2.5998111576276739e-05</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
@@ -699,7 +795,7 @@
         <v>3.8250000000000001e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>3.0527539412073765e-05</v>
+        <v>3.0797900629955986e-05</v>
       </c>
       <c r="H3" s="0">
         <v>1</v>
@@ -731,7 +827,7 @@
         <v>3.2450000000000003e-05</v>
       </c>
       <c r="G4" s="0">
-        <v>3.6298978413875422e-05</v>
+        <v>3.6556586792168248e-05</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
@@ -763,7 +859,7 @@
         <v>3.6539999999999999e-05</v>
       </c>
       <c r="G5" s="0">
-        <v>4.0046441570341187e-05</v>
+        <v>4.0467950439313092e-05</v>
       </c>
       <c r="H5" s="0">
         <v>1</v>
@@ -795,7 +891,7 @@
         <v>3.3979999999999997e-05</v>
       </c>
       <c r="G6" s="0">
-        <v>3.6599726278579506e-05</v>
+        <v>3.6897954532240056e-05</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -827,7 +923,7 @@
         <v>3.1420000000000001e-05</v>
       </c>
       <c r="G7" s="0">
-        <v>3.3153010986817825e-05</v>
+        <v>3.3327958625167027e-05</v>
       </c>
       <c r="H7" s="0">
         <v>1</v>
@@ -891,7 +987,7 @@
         <v>2.6639999999999999e-05</v>
       </c>
       <c r="G9" s="0">
-        <v>2.2655090728321475e-05</v>
+        <v>2.2760403236404806e-05</v>
       </c>
       <c r="H9" s="0">
         <v>1</v>
@@ -923,7 +1019,7 @@
         <v>1.9809999999999998e-05</v>
       </c>
       <c r="G10" s="0">
-        <v>1.9575908446287733e-05</v>
+        <v>1.9779772639491918e-05</v>
       </c>
       <c r="H10" s="0">
         <v>1</v>
@@ -955,7 +1051,7 @@
         <v>0.00018339999999999999</v>
       </c>
       <c r="G11" s="0">
-        <v>0.00015069964736604344</v>
+        <v>0.0001519772945874816</v>
       </c>
       <c r="H11" s="0">
         <v>1</v>
@@ -987,7 +1083,7 @@
         <v>0.00021175</v>
       </c>
       <c r="G12" s="0">
-        <v>0.00017436884874556411</v>
+        <v>0.00017537299428523067</v>
       </c>
       <c r="H12" s="0">
         <v>1</v>
@@ -1019,7 +1115,7 @@
         <v>0.00022915999999999998</v>
       </c>
       <c r="G13" s="0">
-        <v>0.00019636012695217159</v>
+        <v>0.00019764127004575041</v>
       </c>
       <c r="H13" s="0">
         <v>1</v>
@@ -1051,7 +1147,7 @@
         <v>0.00023155999999999999</v>
       </c>
       <c r="G14" s="0">
-        <v>0.00020317432384591054</v>
+        <v>0.00020523908319300123</v>
       </c>
       <c r="H14" s="0">
         <v>1</v>
@@ -1083,7 +1179,7 @@
         <v>0.00020662499999999999</v>
       </c>
       <c r="G15" s="0">
-        <v>0.000185164313508469</v>
+        <v>0.00018664487916339044</v>
       </c>
       <c r="H15" s="0">
         <v>0</v>
@@ -1115,7 +1211,7 @@
         <v>0.00018168999999999998</v>
       </c>
       <c r="G16" s="0">
-        <v>0.00016715430317102746</v>
+        <v>0.00016805067513377963</v>
       </c>
       <c r="H16" s="0">
         <v>1</v>
@@ -1147,7 +1243,7 @@
         <v>0.00014207</v>
       </c>
       <c r="G17" s="0">
-        <v>0.00014206999999999995</v>
+        <v>0.00014206999999999997</v>
       </c>
       <c r="H17" s="0">
         <v>1</v>
@@ -1179,7 +1275,7 @@
         <v>0.00012158</v>
       </c>
       <c r="G18" s="0">
-        <v>0.00012396725949271844</v>
+        <v>0.00012435473600636203</v>
       </c>
       <c r="H18" s="0">
         <v>1</v>
@@ -1211,7 +1307,7 @@
         <v>0.00011509</v>
       </c>
       <c r="G19" s="0">
-        <v>0.00010968806882932727</v>
+        <v>0.00011056800462858482</v>
       </c>
       <c r="H19" s="0">
         <v>1</v>
@@ -1243,7 +1339,7 @@
         <v>0.00040060999999999997</v>
       </c>
       <c r="G20" s="0">
-        <v>0.00039497290347155446</v>
+        <v>0.00039659820369837762</v>
       </c>
       <c r="H20" s="0">
         <v>1</v>
@@ -1275,7 +1371,7 @@
         <v>0.00046140999999999999</v>
       </c>
       <c r="G21" s="0">
-        <v>0.0004388318117994987</v>
+        <v>0.00044052759281474973</v>
       </c>
       <c r="H21" s="0">
         <v>1</v>
@@ -1307,7 +1403,7 @@
         <v>0.00049180000000000003</v>
       </c>
       <c r="G22" s="0">
-        <v>0.00046524640006761028</v>
+        <v>0.00046832929897241689</v>
       </c>
       <c r="H22" s="0">
         <v>1</v>
@@ -1339,7 +1435,7 @@
         <v>0.00049487999999999995</v>
       </c>
       <c r="G23" s="0">
-        <v>0.00045782726015446661</v>
+        <v>0.0004622220044639716</v>
       </c>
       <c r="H23" s="0">
         <v>1</v>
@@ -1371,7 +1467,7 @@
         <v>0.00044399000000000001</v>
       </c>
       <c r="G24" s="0">
-        <v>0.00041748704716269901</v>
+        <v>0.00042063832224788677</v>
       </c>
       <c r="H24" s="0">
         <v>0</v>
@@ -1403,7 +1499,7 @@
         <v>0.00039310000000000001</v>
       </c>
       <c r="G25" s="0">
-        <v>0.00037714683417093136</v>
+        <v>0.00037905464003180195</v>
       </c>
       <c r="H25" s="0">
         <v>1</v>
@@ -1467,7 +1563,7 @@
         <v>0.00027663999999999998</v>
       </c>
       <c r="G27" s="0">
-        <v>0.00030320662093941153</v>
+        <v>0.00030372636497564295</v>
       </c>
       <c r="H27" s="0">
         <v>1</v>
@@ -1499,7 +1595,7 @@
         <v>0.00025033999999999999</v>
       </c>
       <c r="G28" s="0">
-        <v>0.00027697326995519439</v>
+        <v>0.00027839601795111735</v>
       </c>
       <c r="H28" s="0">
         <v>1</v>
